--- a/src/main/resources/data_output/ParallelExecutionTimes.xlsx
+++ b/src/main/resources/data_output/ParallelExecutionTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F56159F-5D94-4A87-B539-21AB3835EBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA16ADD0-99B3-4EF8-8CF6-031EDDA29682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,8 +62,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -91,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,9 +416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -427,53 +438,108 @@
     <col min="12" max="12" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2.5024199E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.22209229999999999</v>
+      </c>
       <c r="C2">
         <v>4.3602000000000002E-2</v>
       </c>
       <c r="D2">
         <v>6.6455100000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.34846E-2</v>
+      </c>
+      <c r="F2">
+        <v>5.9721400000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.6847900000000001E-2</v>
+      </c>
+      <c r="B3">
+        <v>1.3003199999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.5263999999999999E-3</v>
+      </c>
+      <c r="D3">
+        <v>7.3711999999999996E-3</v>
+      </c>
+      <c r="E3">
+        <v>5.2746000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.6979200000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7.9994000000000003E-3</v>
+      </c>
+      <c r="B4">
+        <v>2.2897500000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.6107999999999999E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.5787000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>3.7161999999999998E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.7705999999999998E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/data_output/ParallelExecutionTimes.xlsx
+++ b/src/main/resources/data_output/ParallelExecutionTimes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
@@ -62,6 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -424,18 +425,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.6640625"/>
+    <col min="2" max="2" customWidth="true" width="18.5546875"/>
+    <col min="3" max="3" customWidth="true" width="17.5546875"/>
+    <col min="4" max="4" customWidth="true" width="16.5546875"/>
+    <col min="5" max="5" customWidth="true" width="17.5546875"/>
+    <col min="6" max="6" customWidth="true" width="17.88671875"/>
+    <col min="7" max="7" customWidth="true" width="17.21875"/>
+    <col min="8" max="8" customWidth="true" width="18.21875"/>
+    <col min="9" max="9" customWidth="true" width="15.0"/>
+    <col min="10" max="10" customWidth="true" width="15.6640625"/>
+    <col min="11" max="11" customWidth="true" width="16.33203125"/>
+    <col min="12" max="12" customWidth="true" width="16.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -536,6 +537,14 @@
       </c>
       <c r="D5">
         <v>2.7705999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="n">
+        <v>0.0013182</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0014017</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_output/ParallelExecutionTimes.xlsx
+++ b/src/main/resources/data_output/ParallelExecutionTimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA16ADD0-99B3-4EF8-8CF6-031EDDA29682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84995C13-B09F-49BE-A453-8211FB3D5DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Execution Times" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,74 +477,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2.5024199E-2</v>
-      </c>
-      <c r="B2">
-        <v>0.22209229999999999</v>
-      </c>
-      <c r="C2">
-        <v>4.3602000000000002E-2</v>
-      </c>
-      <c r="D2">
-        <v>6.6455100000000003E-2</v>
-      </c>
-      <c r="E2">
-        <v>5.34846E-2</v>
-      </c>
-      <c r="F2">
-        <v>5.9721400000000001E-2</v>
+    <row r="2">
+      <c r="C2" t="n">
+        <v>0.0207863</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0256373</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.315E-4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.602E-4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.385E-4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.274E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2.6847900000000001E-2</v>
-      </c>
-      <c r="B3">
-        <v>1.3003199999999999E-2</v>
-      </c>
-      <c r="C3">
-        <v>5.5263999999999999E-3</v>
-      </c>
-      <c r="D3">
-        <v>7.3711999999999996E-3</v>
-      </c>
-      <c r="E3">
-        <v>5.2746000000000001E-2</v>
-      </c>
-      <c r="F3">
-        <v>5.6979200000000001E-2</v>
+    <row r="3">
+      <c r="G3" t="n">
+        <v>8.679E-4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0010293</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.156E-4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.806E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7.9994000000000003E-3</v>
-      </c>
-      <c r="B4">
-        <v>2.2897500000000001E-2</v>
-      </c>
-      <c r="C4">
-        <v>2.6107999999999999E-3</v>
-      </c>
-      <c r="D4">
-        <v>2.5787000000000002E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>3.7161999999999998E-3</v>
-      </c>
-      <c r="D5">
-        <v>2.7705999999999998E-3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="n">
-        <v>0.0013182</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0014017</v>
+    <row r="4">
+      <c r="I4" t="n">
+        <v>3.374E-4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.466E-4</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data_output/ParallelExecutionTimes.xlsx
+++ b/src/main/resources/data_output/ParallelExecutionTimes.xlsx
@@ -478,12 +478,24 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="n">
+        <v>0.0248731</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0170371</v>
+      </c>
       <c r="C2" t="n">
         <v>0.0207863</v>
       </c>
       <c r="D2" t="n">
         <v>0.0256373</v>
       </c>
+      <c r="E2" t="n">
+        <v>0.0491208</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0490452</v>
+      </c>
       <c r="G2" t="n">
         <v>1.315E-4</v>
       </c>
@@ -496,8 +508,20 @@
       <c r="J2" t="n">
         <v>1.274E-4</v>
       </c>
+      <c r="K2" t="n">
+        <v>4.481E-4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.177E-4</v>
+      </c>
     </row>
     <row r="3">
+      <c r="C3" t="n">
+        <v>0.0047659</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0078354</v>
+      </c>
       <c r="G3" t="n">
         <v>8.679E-4</v>
       </c>

--- a/src/main/resources/data_output/ParallelExecutionTimes.xlsx
+++ b/src/main/resources/data_output/ParallelExecutionTimes.xlsx
@@ -516,6 +516,12 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="n">
+        <v>0.0090386</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0193585</v>
+      </c>
       <c r="C3" t="n">
         <v>0.0047659</v>
       </c>

--- a/src/main/resources/data_output/ParallelExecutionTimes.xlsx
+++ b/src/main/resources/data_output/ParallelExecutionTimes.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84995C13-B09F-49BE-A453-8211FB3D5DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BDFCCB-CA6C-43E2-8090-71E036065C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Execution Times" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,15 +79,51 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,13 +131,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,6 +175,6160 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Execution For Parellel Graph 10000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph BFS 10000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5426600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5191999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1237599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6053000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2557799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0709000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9644399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8847899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9849200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8485400000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56B6-4C34-A441-A6425B812554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph DFS 10000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.4095399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5765999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.18852E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6195600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8722999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0863799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0033100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.28142E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.26921E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1558600000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56B6-4C34-A441-A6425B812554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="432401152"/>
+        <c:axId val="432398240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="432401152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432398240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432398240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432401152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Execution For Parellel Graph 1000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph BFS 1000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.6386999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2151E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3786999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3479E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5942E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1600999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0589E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2373999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5656000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8566999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A154-4798-92FB-947D9544CC11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph DFS 1000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.2290000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7960000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0515E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7775999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5353999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1053E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4681E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0020000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5041999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6205999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A154-4798-92FB-947D9544CC11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="524203616"/>
+        <c:axId val="524206528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="524203616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524206528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="524206528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524203616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time Execution For Parellel Graph 50000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph BFS 50000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4537100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3870999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5784300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4984699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4064800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.52845E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1398100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6817899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1536699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8267900000000006E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7151-46E4-8AB3-543D61FC8796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Graph DFS 50000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.6375500000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7394899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9999799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.65879E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.79888E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6890799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4493500000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1559799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3232499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6065700000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7151-46E4-8AB3-543D61FC8796}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="524175328"/>
+        <c:axId val="524196960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="524175328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524196960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="524196960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524175328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Execution For Parellel Tree 10000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree BFS 10000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.2210000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2560000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.836E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6449999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0330000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.994E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9070000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5690000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2479999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6059999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C1F-4C5B-8E18-A1A5F4B36159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree DFS 10000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.8679999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3049999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6529999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0460000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2560000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4759999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6790000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0700000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1369999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6789999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C1F-4C5B-8E18-A1A5F4B36159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="614267344"/>
+        <c:axId val="614267760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="614267344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614267760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="614267760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614267344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Execution For Parellel Tree 1000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree BFS 1000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.1369999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.161E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0480000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8840000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6449999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8329999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8089999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3169999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3980000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3310000000000003E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-300C-48FC-9A5F-4E57457D3CDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree DFS 1000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.9029999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.149E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4109999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0809999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7590000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3270000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5820000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5559999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2279999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3940000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-300C-48FC-9A5F-4E57457D3CDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="614263184"/>
+        <c:axId val="614269008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="614263184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614269008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="614269008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614263184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Execution For Parellel Tree 50000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree BFS 50000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.3199999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1309999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9010000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4630000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1530000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1279999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9830000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4749999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.504E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDAD-4B1E-AA6A-7D6003FA2707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Times'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree DFS 50000 (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Times'!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.8529999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8349999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8749999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0049999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0260000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4640000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8299999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3140000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.191E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDAD-4B1E-AA6A-7D6003FA2707}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="624618128"/>
+        <c:axId val="624637264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="624618128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624637264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="624637264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="624618128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29527</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A31347B-6AE3-4D3C-41A4-73485B2DB8DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>29527</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102276BF-578B-6EA5-E4A3-30E074519D43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFE31F1-10BB-3D26-FA9D-976F0999D8DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>134302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>162877</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B91CF8-1E6E-26A1-1181-45E140F1EDB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>143827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>172402</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1F2266-5AA4-F785-21F6-A650A49CD214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>162877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10477</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB33114-4A96-C71B-E020-177D8FB6BA0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,140 +6628,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.6640625"/>
-    <col min="2" max="2" customWidth="true" width="18.5546875"/>
-    <col min="3" max="3" customWidth="true" width="17.5546875"/>
-    <col min="4" max="4" customWidth="true" width="16.5546875"/>
-    <col min="5" max="5" customWidth="true" width="17.5546875"/>
-    <col min="6" max="6" customWidth="true" width="17.88671875"/>
-    <col min="7" max="7" customWidth="true" width="17.21875"/>
-    <col min="8" max="8" customWidth="true" width="18.21875"/>
-    <col min="9" max="9" customWidth="true" width="15.0"/>
-    <col min="10" max="10" customWidth="true" width="15.6640625"/>
-    <col min="11" max="11" customWidth="true" width="16.33203125"/>
-    <col min="12" max="12" customWidth="true" width="16.6640625"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.0248731</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0170371</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0207863</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0256373</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0491208</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0490452</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.315E-4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.602E-4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.385E-4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.274E-4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.481E-4</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.177E-4</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>2.5426600000000001E-2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.4095399999999999E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.6386999999999999E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.2290000000000001E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.4537100000000003E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5.6375500000000002E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4.2210000000000001E-4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8.8679999999999998E-4</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8.1369999999999999E-4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>7.9029999999999997E-4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>8.3199999999999995E-4</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3.8529999999999999E-4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.0090386</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0193585</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0047659</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0078354</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8.679E-4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0010293</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.156E-4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.806E-4</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>8.5191999999999993E-3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.5765999999999993E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.2151E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.7960000000000004E-4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.3870999999999998E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.7394899999999999E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8.2560000000000001E-4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6.3049999999999998E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.161E-4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4.149E-4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6.1309999999999999E-4</v>
+      </c>
+      <c r="L3" s="2">
+        <v>6.8349999999999997E-4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="I4" t="n">
-        <v>3.374E-4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.466E-4</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2.1237599999999999E-2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.18852E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.3786999999999993E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0515E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.5784300000000002E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.9999799999999997E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.836E-4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6.6529999999999996E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8.0480000000000005E-4</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5.4109999999999998E-4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.9010000000000004E-4</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3.8749999999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1.6053000000000001E-2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.6195600000000001E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.3479E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.7775999999999999E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.4984699999999997E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.65879E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.6449999999999998E-4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.0460000000000004E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.8840000000000002E-4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8.0809999999999996E-4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.4630000000000002E-4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>7.0049999999999995E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3.2557799999999998E-2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5.8722999999999996E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.5942E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.5353999999999999E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.4064800000000003E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5.79888E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.0330000000000001E-4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>8.2560000000000001E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7.6449999999999999E-4</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7.7590000000000005E-4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3.1530000000000002E-4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>6.0260000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2.0709000000000002E-2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.0863799999999998E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.1600999999999999E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.1053E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.52845E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.6890799999999998E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.994E-4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.4759999999999999E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6.8329999999999997E-4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3.3270000000000001E-4</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3.4200000000000002E-4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3.4640000000000002E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1.9644399999999999E-2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.0033100000000002E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.0589E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.4681E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.1398100000000002E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.4493500000000003E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.9070000000000002E-4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>9.6790000000000005E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7.8089999999999995E-4</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5.5820000000000002E-4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>9.1279999999999996E-4</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5.8299999999999997E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2.8847899999999999E-2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.28142E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.2373999999999997E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.0020000000000004E-4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5.6817899999999998E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6.1559799999999998E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.5690000000000002E-4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4.0700000000000003E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3.3169999999999999E-4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.5559999999999999E-4</v>
+      </c>
+      <c r="K9" s="2">
+        <v>7.9830000000000005E-4</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5.3140000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1.9849200000000001E-2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.26921E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.5656000000000004E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.5041999999999999E-3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.1536699999999998E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.3232499999999998E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3.2479999999999998E-4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.1369999999999999E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.3980000000000002E-4</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3.2279999999999999E-4</v>
+      </c>
+      <c r="K10" s="2">
+        <v>8.4749999999999995E-4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.6899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>2.8485400000000001E-2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.1558600000000001E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.8566999999999998E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.6205999999999999E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.8267900000000006E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5.6065700000000003E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4.6059999999999997E-4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.6789999999999999E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8.3310000000000003E-4</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3.3940000000000001E-4</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4.504E-4</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3.191E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/data_output/ParallelExecutionTimes.xlsx
+++ b/src/main/resources/data_output/ParallelExecutionTimes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anul1 IS1.1 Semestrul2\MEvPerf\SearchAlgorithms\src\main\resources\data_output\"/>
     </mc:Choice>
@@ -62,6 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6628,7 +6629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
@@ -6636,18 +6637,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.6640625"/>
+    <col min="2" max="2" customWidth="true" width="18.5546875"/>
+    <col min="3" max="3" customWidth="true" width="17.5546875"/>
+    <col min="4" max="4" customWidth="true" width="16.5546875"/>
+    <col min="5" max="5" customWidth="true" width="17.5546875"/>
+    <col min="6" max="6" customWidth="true" width="17.88671875"/>
+    <col min="7" max="7" customWidth="true" width="17.21875"/>
+    <col min="8" max="8" customWidth="true" width="18.21875"/>
+    <col min="9" max="9" customWidth="true" width="15.0"/>
+    <col min="10" max="10" customWidth="true" width="15.6640625"/>
+    <col min="11" max="11" customWidth="true" width="16.33203125"/>
+    <col min="12" max="12" customWidth="true" width="16.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -7066,6 +7067,28 @@
       </c>
       <c r="L11" s="2">
         <v>3.191E-4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="n">
+        <v>0.006205</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0010974</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.724E-4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.16E-4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="n">
+        <v>0.0022576</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.005929</v>
       </c>
     </row>
   </sheetData>
